--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>2.9710025</v>
+        <v>0.1780495</v>
       </c>
       <c r="H2">
-        <v>5.942005</v>
+        <v>0.356099</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.269746</v>
+        <v>90.353905</v>
       </c>
       <c r="N2">
-        <v>66.539492</v>
+        <v>180.70781</v>
       </c>
       <c r="O2">
-        <v>0.2005681987123831</v>
+        <v>0.3131638580342592</v>
       </c>
       <c r="P2">
-        <v>0.1699655288935572</v>
+        <v>0.2965570309229201</v>
       </c>
       <c r="Q2">
-        <v>98.844498540365</v>
+        <v>16.0874676082975</v>
       </c>
       <c r="R2">
-        <v>395.37799416146</v>
+        <v>64.34987043318999</v>
       </c>
       <c r="S2">
-        <v>0.2005681987123831</v>
+        <v>0.3131638580342592</v>
       </c>
       <c r="T2">
-        <v>0.1699655288935572</v>
+        <v>0.2965570309229201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>2.9710025</v>
+        <v>0.1780495</v>
       </c>
       <c r="H3">
-        <v>5.942005</v>
+        <v>0.356099</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>1.078206</v>
       </c>
       <c r="O3">
-        <v>0.002166671538569243</v>
+        <v>0.001245676287098259</v>
       </c>
       <c r="P3">
-        <v>0.002754121613164806</v>
+        <v>0.001769428615638018</v>
       </c>
       <c r="Q3">
-        <v>1.067784240505</v>
+        <v>0.063991346399</v>
       </c>
       <c r="R3">
-        <v>6.40670544303</v>
+        <v>0.383948078394</v>
       </c>
       <c r="S3">
-        <v>0.002166671538569243</v>
+        <v>0.001245676287098259</v>
       </c>
       <c r="T3">
-        <v>0.002754121613164806</v>
+        <v>0.001769428615638018</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2.9710025</v>
+        <v>0.1780495</v>
       </c>
       <c r="H4">
-        <v>5.942005</v>
+        <v>0.356099</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.47626</v>
+        <v>10.80810533333333</v>
       </c>
       <c r="N4">
-        <v>25.42878</v>
+        <v>32.424316</v>
       </c>
       <c r="O4">
-        <v>0.05109952447541453</v>
+        <v>0.03746056093787335</v>
       </c>
       <c r="P4">
-        <v>0.06495414845995381</v>
+        <v>0.05321108635352579</v>
       </c>
       <c r="Q4">
-        <v>25.18298965065</v>
+        <v>1.924377750547333</v>
       </c>
       <c r="R4">
-        <v>151.0979379039</v>
+        <v>11.546266503284</v>
       </c>
       <c r="S4">
-        <v>0.05109952447541453</v>
+        <v>0.03746056093787335</v>
       </c>
       <c r="T4">
-        <v>0.06495414845995381</v>
+        <v>0.05321108635352579</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>2.9710025</v>
+        <v>0.1780495</v>
       </c>
       <c r="H5">
-        <v>5.942005</v>
+        <v>0.356099</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>72.87451449999999</v>
+        <v>165.852196</v>
       </c>
       <c r="N5">
-        <v>145.749029</v>
+        <v>331.704392</v>
       </c>
       <c r="O5">
-        <v>0.4393273728421144</v>
+        <v>0.574838614477306</v>
       </c>
       <c r="P5">
-        <v>0.3722948591147555</v>
+        <v>0.5443553858331436</v>
       </c>
       <c r="Q5">
-        <v>216.5103647657862</v>
+        <v>29.529900571702</v>
       </c>
       <c r="R5">
-        <v>866.0414590631449</v>
+        <v>118.119602286808</v>
       </c>
       <c r="S5">
-        <v>0.4393273728421144</v>
+        <v>0.574838614477306</v>
       </c>
       <c r="T5">
-        <v>0.3722948591147555</v>
+        <v>0.5443553858331436</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>2.9710025</v>
+        <v>0.1780495</v>
       </c>
       <c r="H6">
-        <v>5.942005</v>
+        <v>0.356099</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.193335</v>
+        <v>5.448456</v>
       </c>
       <c r="N6">
-        <v>138.580005</v>
+        <v>16.345368</v>
       </c>
       <c r="O6">
-        <v>0.2784786512487256</v>
+        <v>0.01888418105769649</v>
       </c>
       <c r="P6">
-        <v>0.3539826219878084</v>
+        <v>0.02682415222353981</v>
       </c>
       <c r="Q6">
-        <v>137.2405137683375</v>
+        <v>0.9700948665720001</v>
       </c>
       <c r="R6">
-        <v>823.443082610025</v>
+        <v>5.820569199432001</v>
       </c>
       <c r="S6">
-        <v>0.2784786512487256</v>
+        <v>0.01888418105769649</v>
       </c>
       <c r="T6">
-        <v>0.3539826219878084</v>
+        <v>0.02682415222353981</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>2.9710025</v>
+        <v>0.1780495</v>
       </c>
       <c r="H7">
-        <v>5.942005</v>
+        <v>0.356099</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.704215666666666</v>
+        <v>15.69751633333333</v>
       </c>
       <c r="N7">
-        <v>14.112647</v>
+        <v>47.09254900000001</v>
       </c>
       <c r="O7">
-        <v>0.0283595811827931</v>
+        <v>0.05440710920576665</v>
       </c>
       <c r="P7">
-        <v>0.03604871993076041</v>
+        <v>0.07728291605123282</v>
       </c>
       <c r="Q7">
-        <v>13.97623650620583</v>
+        <v>2.794934934391834</v>
       </c>
       <c r="R7">
-        <v>83.85741903723499</v>
+        <v>16.769609606351</v>
       </c>
       <c r="S7">
-        <v>0.0283595811827931</v>
+        <v>0.05440710920576665</v>
       </c>
       <c r="T7">
-        <v>0.03604871993076041</v>
+        <v>0.07728291605123282</v>
       </c>
     </row>
   </sheetData>
